--- a/python_work/test.xlsx
+++ b/python_work/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>총점</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>평균</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -464,6 +469,9 @@
       <c r="E2" t="n">
         <v>102</v>
       </c>
+      <c r="F2" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -481,6 +489,9 @@
       <c r="E3" t="n">
         <v>223</v>
       </c>
+      <c r="F3" t="n">
+        <v>74.33333333333333</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -498,6 +509,9 @@
       <c r="E4" t="n">
         <v>102</v>
       </c>
+      <c r="F4" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -515,6 +529,9 @@
       <c r="E5" t="n">
         <v>262</v>
       </c>
+      <c r="F5" t="n">
+        <v>87.33333333333333</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -532,6 +549,9 @@
       <c r="E6" t="n">
         <v>140</v>
       </c>
+      <c r="F6" t="n">
+        <v>46.66666666666666</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -549,6 +569,9 @@
       <c r="E7" t="n">
         <v>93</v>
       </c>
+      <c r="F7" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -566,6 +589,9 @@
       <c r="E8" t="n">
         <v>189</v>
       </c>
+      <c r="F8" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -583,6 +609,9 @@
       <c r="E9" t="n">
         <v>157</v>
       </c>
+      <c r="F9" t="n">
+        <v>52.33333333333334</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -600,6 +629,9 @@
       <c r="E10" t="n">
         <v>141</v>
       </c>
+      <c r="F10" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -616,6 +648,9 @@
       </c>
       <c r="E11" t="n">
         <v>129</v>
+      </c>
+      <c r="F11" t="n">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
